--- a/meta_dataframe.xlsx
+++ b/meta_dataframe.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngjun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngjun\Google Drive\GitHub\animal_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="152">
   <si>
     <t>study</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Castillejos et al., 2007</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -1357,11 +1360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,7 +1374,7 @@
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1406,10 +1409,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1443,11 +1449,11 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1551,11 +1557,11 @@
       <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1589,11 +1595,11 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1627,11 +1633,11 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1770,11 +1776,11 @@
       <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1878,11 +1884,11 @@
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1986,11 +1992,11 @@
       <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2024,11 +2030,11 @@
       <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2167,11 +2173,11 @@
       <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2310,11 +2316,11 @@
       <c r="K26" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2350,11 +2356,11 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2390,11 +2396,11 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2505,11 +2511,11 @@
       <c r="K31" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2545,11 +2551,11 @@
       <c r="K32" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -2622,11 +2628,11 @@
       <c r="K34" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2699,11 +2705,11 @@
       <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2776,11 +2782,11 @@
       <c r="K38" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -2818,11 +2824,11 @@
       <c r="K39" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2858,11 +2864,11 @@
       <c r="K40" t="s">
         <v>67</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -2935,11 +2941,11 @@
       <c r="K42" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -3012,11 +3018,11 @@
       <c r="K44" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -3052,11 +3058,11 @@
       <c r="K45" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3092,11 +3098,11 @@
       <c r="K46" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -3132,11 +3138,11 @@
       <c r="K47" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -3172,11 +3178,11 @@
       <c r="K48" t="s">
         <v>74</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3212,11 +3218,11 @@
       <c r="K49" t="s">
         <v>77</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -3289,11 +3295,11 @@
       <c r="K51" t="s">
         <v>45</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -3366,11 +3372,11 @@
       <c r="K53" t="s">
         <v>80</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -3406,11 +3412,11 @@
       <c r="K54" t="s">
         <v>45</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3483,11 +3489,11 @@
       <c r="K56" t="s">
         <v>45</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -3560,11 +3566,11 @@
       <c r="K58" t="s">
         <v>67</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -3600,11 +3606,11 @@
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3640,11 +3646,11 @@
       <c r="K60" t="s">
         <v>45</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -3680,11 +3686,11 @@
       <c r="K61" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -3831,11 +3837,11 @@
       <c r="K65" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -3945,11 +3951,11 @@
       <c r="K68" t="s">
         <v>45</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -4022,11 +4028,11 @@
       <c r="K70" t="s">
         <v>17</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -4136,11 +4142,11 @@
       <c r="K73" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -4213,11 +4219,11 @@
       <c r="K75" t="s">
         <v>17</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -4327,11 +4333,11 @@
       <c r="K78" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -4404,11 +4410,11 @@
       <c r="K80" t="s">
         <v>67</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -4518,11 +4524,11 @@
       <c r="K83" t="s">
         <v>67</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4630,11 +4636,11 @@
       <c r="K86" t="s">
         <v>17</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -4668,11 +4674,11 @@
       <c r="K87" t="s">
         <v>45</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -4706,11 +4712,11 @@
       <c r="K88" t="s">
         <v>17</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -4744,11 +4750,11 @@
       <c r="K89" t="s">
         <v>17</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -4852,11 +4858,11 @@
       <c r="K92" t="s">
         <v>45</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -4925,11 +4931,11 @@
       <c r="K94" t="s">
         <v>17</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>62</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -4998,11 +5004,11 @@
       <c r="K96" t="s">
         <v>45</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -5036,11 +5042,11 @@
       <c r="K97" t="s">
         <v>45</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -5074,11 +5080,11 @@
       <c r="K98" t="s">
         <v>67</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -5147,11 +5153,11 @@
       <c r="K100" t="s">
         <v>45</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -5220,11 +5226,11 @@
       <c r="K102" t="s">
         <v>69</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -5258,11 +5264,11 @@
       <c r="K103" t="s">
         <v>45</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>135</v>
       </c>
@@ -5296,11 +5302,11 @@
       <c r="K104" t="s">
         <v>74</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -5334,11 +5340,11 @@
       <c r="K105" t="s">
         <v>77</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -5407,11 +5413,11 @@
       <c r="K107" t="s">
         <v>45</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -5480,11 +5486,11 @@
       <c r="K109" t="s">
         <v>45</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -5553,11 +5559,11 @@
       <c r="K111" t="s">
         <v>45</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5626,11 +5632,11 @@
       <c r="K113" t="s">
         <v>67</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -5664,11 +5670,11 @@
       <c r="K114" t="s">
         <v>17</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -5702,11 +5708,11 @@
       <c r="K115" t="s">
         <v>45</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -5740,11 +5746,11 @@
       <c r="K116" t="s">
         <v>12</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -5883,11 +5889,11 @@
       <c r="K120" t="s">
         <v>17</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -5922,7 +5928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>91</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -5991,11 +5997,11 @@
       <c r="K123" t="s">
         <v>45</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -6064,11 +6070,11 @@
       <c r="K125" t="s">
         <v>17</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -6172,11 +6178,11 @@
       <c r="K128" t="s">
         <v>17</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>101</v>
       </c>
@@ -6245,11 +6251,11 @@
       <c r="K130" t="s">
         <v>17</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>102</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>105</v>
       </c>
@@ -6353,11 +6359,11 @@
       <c r="K133" t="s">
         <v>12</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -6426,11 +6432,11 @@
       <c r="K135" t="s">
         <v>67</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>113</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>114</v>
       </c>
@@ -6502,45 +6508,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L44" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L45" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L58" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L59" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L65" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L68" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L73" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L75" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L78" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L83" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M44" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M45" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M58" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M59" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M61" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M65" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M68" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M73" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M75" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M78" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M80" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M83" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
